--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="224">
   <si>
     <t>共通設定</t>
   </si>
@@ -220,11 +220,6 @@
     <t>ホストグループ構成</t>
   </si>
   <si>
-    <t xml:space="preserve">Prints database component version information from product_component_version,
-and dba_registry_history. 
-</t>
-  </si>
-  <si>
     <t>dbfeatusage</t>
   </si>
   <si>
@@ -246,11 +241,6 @@
     <t>dbvers</t>
   </si>
   <si>
-    <t xml:space="preserve">Prints database version and patch information from produt_component_version, and
-dba_registry_history.
-</t>
-  </si>
-  <si>
     <t>nls</t>
   </si>
   <si>
@@ -288,20 +278,6 @@
   </si>
   <si>
     <t>tabstorage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prints 6 different reports 1-3) Table/Partition/Subpartition Storage Detail.
-4-6) Table/Partition/Subpartition Storage Summary. 
-</t>
-  </si>
-  <si>
-    <t>Monitored</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>NotFoundError</t>
   </si>
   <si>
     <t>orcl</t>
@@ -361,12 +337,6 @@
     <t>dbattrs.dbid</t>
   </si>
   <si>
-    <t>dbattrs.name</t>
-  </si>
-  <si>
-    <t>dbattrs.created</t>
-  </si>
-  <si>
     <t>dbattrs.current_scn</t>
   </si>
   <si>
@@ -386,6 +356,399 @@
   </si>
   <si>
     <t>parmdef.diagnostic_dest</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prints 6 different reports 1-3) Table/Partition/Subpartition Storage Detail.
+4-6) Table/Partition/Subpartition Storage Summary. </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Prints database version and patch information from produt_component_version, and
+dba_registry_history.</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Prints database component version information from product_component_version,
+and dba_registry_history. </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbcomps.version</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbcomps.Oracle Real Application Clusters</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbvers.Oracle Database</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>redoinfo.redo_size</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>redoinfo.redo_count</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sgasize.Database Buffers</t>
+  </si>
+  <si>
+    <t>sgasize.Fixed Size</t>
+  </si>
+  <si>
+    <t>sgasize.Redo Buffers</t>
+  </si>
+  <si>
+    <t>sgasize.Variable Size</t>
+  </si>
+  <si>
+    <t>General Information:</t>
+  </si>
+  <si>
+    <t>Host Configuration:</t>
+  </si>
+  <si>
+    <t>dbinstance</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbinstance.archiver</t>
+  </si>
+  <si>
+    <t>dbinstance.logins</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbinstance.edition</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hostconfig</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hostconfig.num_cpu_sockets</t>
+  </si>
+  <si>
+    <t>hostconfig.num_cpu_cores</t>
+  </si>
+  <si>
+    <t>hostconfig.num_cpus</t>
+  </si>
+  <si>
+    <t>hostconfig.physical_memory_bytes</t>
+  </si>
+  <si>
+    <t>dbattrs.platform_name</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>NLS Comfiguration:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nls.nls_territory</t>
+  </si>
+  <si>
+    <t>nls.nls_language</t>
+  </si>
+  <si>
+    <t>nls.nls_characterset</t>
+  </si>
+  <si>
+    <t>nls.nls_nchar_characterset</t>
+  </si>
+  <si>
+    <t>nls.nls_length_semantics</t>
+  </si>
+  <si>
+    <t>Memory Configuration:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbinfo.memory_management</t>
+  </si>
+  <si>
+    <t>dbinfo.statistics_level</t>
+  </si>
+  <si>
+    <t>dbinfo.sga_target</t>
+  </si>
+  <si>
+    <t>dbinfo.sga_max_size</t>
+  </si>
+  <si>
+    <t>dbinfo.memory_target</t>
+  </si>
+  <si>
+    <t>dbinfo.memory_max_target</t>
+  </si>
+  <si>
+    <t>dbinfo.pga_aggregate_target</t>
+  </si>
+  <si>
+    <t>Memory Pool Sizes:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>parmdef.db_cache_size</t>
+  </si>
+  <si>
+    <t>parmdef.shared_pool_size</t>
+  </si>
+  <si>
+    <t>parmdef.streams_pool_size</t>
+  </si>
+  <si>
+    <t>parmdef.large_pool_size</t>
+  </si>
+  <si>
+    <t>parmdef.java_pool_size</t>
+  </si>
+  <si>
+    <t>Storage Configuration:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbinstance</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>nls.default_tbs_type</t>
+  </si>
+  <si>
+    <t>nls.default_permanent_tablespace</t>
+  </si>
+  <si>
+    <t>nls.default_temp_tablespace</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sumstorage</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Storage Utilization:</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sumstorage.datafiles</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sumstorage.tempfiles</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sumstorage.redologs</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>sumstorage.controlfiles</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_unique_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_block_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dbid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oracle Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  compatible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cluster_database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cluster_database_instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Oracle Real Application Clusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  current_scn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  open_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  force_logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  log_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  archiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  logins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  num_cpu_sockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  num_cpu_cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  num_cpus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  physical_memory_bytes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  platform_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nls_territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nls_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nls_characterset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nls_nchar_characterset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  nls_length_semantics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  memory_management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  statistics_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sga_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sga_max_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  memory_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  memory_max_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pga_aggregate_target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Database Buffers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Fixed Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Redo Buffers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Variable Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_cache_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  shared_pool_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  streams_pool_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  large_pool_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  java_pool_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redo_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redo_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_recovery_file_dest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  db_recovery_file_dest_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default_tbs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default_permanent_tablespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default_temp_tablespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diagnostic_dest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  datafiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  tempfiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  redologs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  controlfiles</t>
+  </si>
+  <si>
+    <t>parmdef.db_recovery_file_dest</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>parmdef.db_recovery_file_dest_size</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -559,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,13 +980,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,16 +1338,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="19"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -983,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -995,7 +1370,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -1012,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1024,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>13</v>
@@ -1038,10 +1413,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -1050,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="2"/>
@@ -1734,20 +2109,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK34"/>
+  <dimension ref="A1:AMK85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="2" style="3" customWidth="1"/>
-    <col min="6" max="6" width="76.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="3" customWidth="1"/>
     <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
     <col min="9" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
@@ -1797,15 +2172,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>14</v>
@@ -1813,123 +2188,171 @@
       <c r="E5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>56</v>
+      <c r="F5" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="21"/>
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="21"/>
+      <c r="A13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>14</v>
@@ -1938,7 +2361,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1946,10 +2369,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
@@ -1957,8 +2380,8 @@
       <c r="E15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>65</v>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1966,10 +2389,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
@@ -1978,287 +2401,965 @@
         <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="19"/>
+      <c r="B79" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="7" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="19"/>
+      <c r="F79" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="19"/>
+      <c r="B80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="19"/>
+      <c r="D80" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="19"/>
+      <c r="B81" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>84</v>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2282,20 +3383,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="1007" width="8.75" customWidth="1"/>
-    <col min="1008" max="1025" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="1019" width="8.75" customWidth="1"/>
+    <col min="1020" max="1037" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>47</v>
       </c>
@@ -2311,1030 +3424,2326 @@
       <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>85</v>
+        <v>107</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
         <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="10">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="10">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="10">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="10">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="10">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="10">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="10">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="10">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="10">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="10">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="10">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="10">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="10">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="10">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="10">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="10">
         <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="10">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="10">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="10">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="10">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="10">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="10">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="10">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="10">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="10">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="10">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="21"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="10">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="10">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="21"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="10">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="10">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="21"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="10">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="21"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="10">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="10">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="10">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="10">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="10">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="10">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="10">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="10">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="10">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="10">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="10">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="10">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="10">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="10">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="10">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="10">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="10">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="10">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="10">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\template\Oracle\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="検査レポート" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="エラーレポート" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="チェックシート(Oracle)" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="テンプレート(Oracle)" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
+    <sheet name="チェックシート(Oracle)" sheetId="4" r:id="rId4"/>
+    <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="238">
   <si>
     <t>共通設定</t>
   </si>
@@ -105,27 +109,6 @@
     <t>ドメイン</t>
   </si>
   <si>
-    <t>ホストグループ</t>
-  </si>
-  <si>
-    <t>テンプレート</t>
-  </si>
-  <si>
-    <t>接続アドレス</t>
-  </si>
-  <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>利用可能</t>
-  </si>
-  <si>
-    <t>Syslog監視</t>
-  </si>
-  <si>
-    <t>トリガー</t>
-  </si>
-  <si>
     <t>検査成績</t>
   </si>
   <si>
@@ -150,30 +133,6 @@
     <t>_base</t>
   </si>
   <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>parentTemplates</t>
-  </si>
-  <si>
-    <t>interfaces</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>syslog</t>
-  </si>
-  <si>
-    <t>trigger</t>
-  </si>
-  <si>
-    <t>Zabbix</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -213,12 +172,6 @@
     <t>dbattrs</t>
   </si>
   <si>
-    <t>ホストID</t>
-  </si>
-  <si>
-    <t>Flips v$database on its side and prints all name, value pairs</t>
-  </si>
-  <si>
     <t>dbinstance</t>
   </si>
   <si>
@@ -228,91 +181,39 @@
     <t>dbcomps</t>
   </si>
   <si>
-    <t>ホストグループ構成</t>
-  </si>
-  <si>
-    <t>Prints database component version information from product_component_version,
-and dba_registry_history. </t>
-  </si>
-  <si>
     <t>dbfeatusage</t>
   </si>
   <si>
-    <t>適用テンプレート</t>
-  </si>
-  <si>
-    <t>Report Database Features in Use.</t>
-  </si>
-  <si>
     <t>dbinfo</t>
   </si>
   <si>
-    <t>表示名</t>
-  </si>
-  <si>
-    <t>Prints a report containing key database information.</t>
-  </si>
-  <si>
     <t>dbvers</t>
   </si>
   <si>
-    <t>Prints database version and patch information from produt_component_version, and
-dba_registry_history.</t>
-  </si>
-  <si>
     <t>nls</t>
   </si>
   <si>
-    <t>Prints contents of the props$ table. This script replaces the nlsparms script. </t>
-  </si>
-  <si>
     <t>parmdef</t>
   </si>
   <si>
-    <t>Prints a report instance parameter definitions.</t>
-  </si>
-  <si>
     <t>cdbstorage</t>
   </si>
   <si>
-    <t>ホスト</t>
-  </si>
-  <si>
-    <t>compute sum of fsm apm on report
-break on report on con_id on con_name on tablespace_name</t>
-  </si>
-  <si>
     <t>redoinfo</t>
   </si>
   <si>
-    <t>Reports redolog info from v$log, and v$logfile.</t>
-  </si>
-  <si>
     <t>sgasize</t>
   </si>
   <si>
-    <t>Report SGA Memory Config.</t>
-  </si>
-  <si>
     <t>sysmetric</t>
   </si>
   <si>
-    <t>This script prints a report from v$sysmetric and gv$sysmetric.</t>
-  </si>
-  <si>
     <t>systime</t>
   </si>
   <si>
-    <t>This script prints a report FROM V$SYS_TIME_MODEL and GV$SYS_TIME_MODEL.</t>
-  </si>
-  <si>
     <t>tabstorage</t>
   </si>
   <si>
-    <t>Prints 6 different reports 1-3) Table/Partition/Subpartition Storage Detail.
-4-6) Table/Partition/Subpartition Storage Summary. </t>
-  </si>
-  <si>
     <t>sumstorage</t>
   </si>
   <si>
@@ -322,115 +223,115 @@
     <t>dbinfo.instance_name</t>
   </si>
   <si>
-    <t>  instance_name</t>
+    <t>instance_name</t>
   </si>
   <si>
     <t>dbinfo.db_name</t>
   </si>
   <si>
-    <t>  db_name</t>
+    <t>db_name</t>
   </si>
   <si>
     <t>dbinfo.db_unique_name</t>
   </si>
   <si>
-    <t>  db_unique_name</t>
+    <t>db_unique_name</t>
   </si>
   <si>
     <t>dbinfo.db_domain</t>
   </si>
   <si>
-    <t>  db_domain</t>
+    <t>db_domain</t>
   </si>
   <si>
     <t>dbinfo.db_block_size</t>
   </si>
   <si>
-    <t>  db_block_size</t>
+    <t>db_block_size</t>
   </si>
   <si>
     <t>dbattrs.dbid</t>
   </si>
   <si>
-    <t>  dbid</t>
+    <t>dbid</t>
   </si>
   <si>
     <t>dbvers.Oracle Database</t>
   </si>
   <si>
-    <t>  Oracle Database</t>
+    <t>Oracle Database</t>
   </si>
   <si>
     <t>dbcomps.version</t>
   </si>
   <si>
-    <t>  version</t>
+    <t>version</t>
   </si>
   <si>
     <t>dbinfo.compatible</t>
   </si>
   <si>
-    <t>  compatible</t>
+    <t>compatible</t>
   </si>
   <si>
     <t>dbinstance.edition</t>
   </si>
   <si>
-    <t>  edition</t>
+    <t>edition</t>
   </si>
   <si>
     <t>dbinfo.cluster_database</t>
   </si>
   <si>
-    <t>  cluster_database</t>
+    <t>cluster_database</t>
   </si>
   <si>
     <t>dbinfo.cluster_database_instances</t>
   </si>
   <si>
-    <t>  cluster_database_instances</t>
+    <t>cluster_database_instances</t>
   </si>
   <si>
     <t>dbcomps.Oracle Real Application Clusters</t>
   </si>
   <si>
-    <t>  Oracle Real Application Clusters</t>
+    <t>Oracle Real Application Clusters</t>
   </si>
   <si>
     <t>dbattrs.current_scn</t>
   </si>
   <si>
-    <t>  current_scn</t>
+    <t>current_scn</t>
   </si>
   <si>
     <t>dbattrs.open_mode</t>
   </si>
   <si>
-    <t>  open_mode</t>
+    <t>open_mode</t>
   </si>
   <si>
     <t>dbattrs.force_logging</t>
   </si>
   <si>
-    <t>  force_logging</t>
+    <t>force_logging</t>
   </si>
   <si>
     <t>dbattrs.log_mode</t>
   </si>
   <si>
-    <t>  log_mode</t>
+    <t>log_mode</t>
   </si>
   <si>
     <t>dbinstance.archiver</t>
   </si>
   <si>
-    <t>  archiver</t>
+    <t>archiver</t>
   </si>
   <si>
     <t>dbinstance.logins</t>
   </si>
   <si>
-    <t>  logins</t>
+    <t>logins</t>
   </si>
   <si>
     <t>Host Configuration:</t>
@@ -439,31 +340,25 @@
     <t>hostconfig.num_cpu_sockets</t>
   </si>
   <si>
-    <t>  num_cpu_sockets</t>
+    <t>num_cpu_sockets</t>
   </si>
   <si>
     <t>hostconfig.num_cpu_cores</t>
   </si>
   <si>
-    <t>  num_cpu_cores</t>
+    <t>num_cpu_cores</t>
   </si>
   <si>
     <t>hostconfig.num_cpus</t>
   </si>
   <si>
-    <t>  num_cpus</t>
-  </si>
-  <si>
-    <t>hostconfig.physical_memory_bytes</t>
-  </si>
-  <si>
-    <t>  physical_memory_bytes</t>
+    <t>num_cpus</t>
   </si>
   <si>
     <t>dbattrs.platform_name</t>
   </si>
   <si>
-    <t>  platform_name</t>
+    <t>platform_name</t>
   </si>
   <si>
     <t>NLS Comfiguration:</t>
@@ -472,31 +367,31 @@
     <t>nls.nls_territory</t>
   </si>
   <si>
-    <t>  nls_territory</t>
+    <t>nls_territory</t>
   </si>
   <si>
     <t>nls.nls_language</t>
   </si>
   <si>
-    <t>  nls_language</t>
+    <t>nls_language</t>
   </si>
   <si>
     <t>nls.nls_characterset</t>
   </si>
   <si>
-    <t>  nls_characterset</t>
+    <t>nls_characterset</t>
   </si>
   <si>
     <t>nls.nls_nchar_characterset</t>
   </si>
   <si>
-    <t>  nls_nchar_characterset</t>
+    <t>nls_nchar_characterset</t>
   </si>
   <si>
     <t>nls.nls_length_semantics</t>
   </si>
   <si>
-    <t>  nls_length_semantics</t>
+    <t>nls_length_semantics</t>
   </si>
   <si>
     <t>Memory Configuration:</t>
@@ -505,100 +400,85 @@
     <t>dbinfo.memory_management</t>
   </si>
   <si>
-    <t>  memory_management</t>
+    <t>memory_management</t>
   </si>
   <si>
     <t>dbinfo.statistics_level</t>
   </si>
   <si>
-    <t>  statistics_level</t>
+    <t>statistics_level</t>
   </si>
   <si>
     <t>dbinfo.sga_target</t>
   </si>
   <si>
-    <t>  sga_target</t>
+    <t>sga_target</t>
   </si>
   <si>
     <t>dbinfo.sga_max_size</t>
   </si>
   <si>
-    <t>  sga_max_size</t>
+    <t>sga_max_size</t>
   </si>
   <si>
     <t>dbinfo.memory_target</t>
   </si>
   <si>
-    <t>  memory_target</t>
+    <t>memory_target</t>
   </si>
   <si>
     <t>dbinfo.memory_max_target</t>
   </si>
   <si>
-    <t>  memory_max_target</t>
+    <t>memory_max_target</t>
   </si>
   <si>
     <t>dbinfo.pga_aggregate_target</t>
   </si>
   <si>
-    <t>  pga_aggregate_target</t>
+    <t>pga_aggregate_target</t>
   </si>
   <si>
     <t>sgasize.Database Buffers</t>
   </si>
   <si>
-    <t>  Database Buffers</t>
+    <t>Database Buffers</t>
   </si>
   <si>
     <t>sgasize.Fixed Size</t>
   </si>
   <si>
-    <t>  Fixed Size</t>
+    <t>Fixed Size</t>
   </si>
   <si>
     <t>sgasize.Redo Buffers</t>
   </si>
   <si>
-    <t>  Redo Buffers</t>
+    <t>Redo Buffers</t>
   </si>
   <si>
     <t>sgasize.Variable Size</t>
   </si>
   <si>
-    <t>  Variable Size</t>
+    <t>Variable Size</t>
   </si>
   <si>
     <t>Memory Pool Sizes:</t>
   </si>
   <si>
-    <t>parmdef.db_cache_size</t>
-  </si>
-  <si>
-    <t>  db_cache_size</t>
-  </si>
-  <si>
-    <t>parmdef.shared_pool_size</t>
-  </si>
-  <si>
-    <t>  shared_pool_size</t>
-  </si>
-  <si>
-    <t>parmdef.streams_pool_size</t>
-  </si>
-  <si>
-    <t>  streams_pool_size</t>
-  </si>
-  <si>
-    <t>parmdef.large_pool_size</t>
-  </si>
-  <si>
-    <t>  large_pool_size</t>
-  </si>
-  <si>
-    <t>parmdef.java_pool_size</t>
-  </si>
-  <si>
-    <t>  java_pool_size</t>
+    <t>db_cache_size</t>
+  </si>
+  <si>
+    <t>shared_pool_size</t>
+  </si>
+  <si>
+    <t>streams_pool_size</t>
+  </si>
+  <si>
+    <t>large_pool_size</t>
+  </si>
+  <si>
+    <t>java_pool_size</t>
   </si>
   <si>
     <t>Storage Configuration:</t>
@@ -607,55 +487,43 @@
     <t>redoinfo.redo_size</t>
   </si>
   <si>
-    <t>  redo_size</t>
+    <t>redo_size</t>
   </si>
   <si>
     <t>redoinfo.redo_count</t>
   </si>
   <si>
-    <t>  redo_count</t>
-  </si>
-  <si>
-    <t>parmdef.db_recovery_file_dest</t>
-  </si>
-  <si>
-    <t>  db_recovery_file_dest</t>
-  </si>
-  <si>
-    <t>parmdef.db_recovery_file_dest_size</t>
-  </si>
-  <si>
-    <t>  db_recovery_file_dest_size</t>
+    <t>redo_count</t>
+  </si>
+  <si>
+    <t>db_recovery_file_dest</t>
+  </si>
+  <si>
+    <t>db_recovery_file_dest_size</t>
   </si>
   <si>
     <t>nls.default_tbs_type</t>
   </si>
   <si>
-    <t>  default_tbs_type</t>
+    <t>default_tbs_type</t>
   </si>
   <si>
     <t>nls.default_permanent_tablespace</t>
   </si>
   <si>
-    <t>  default_permanent_tablespace</t>
+    <t>default_permanent_tablespace</t>
   </si>
   <si>
     <t>nls.default_temp_tablespace</t>
   </si>
   <si>
-    <t>  default_temp_tablespace</t>
-  </si>
-  <si>
-    <t>parmdef.spfile</t>
-  </si>
-  <si>
-    <t>  spfile</t>
-  </si>
-  <si>
-    <t>parmdef.diagnostic_dest</t>
-  </si>
-  <si>
-    <t>  diagnostic_dest</t>
+    <t>default_temp_tablespace</t>
+  </si>
+  <si>
+    <t>spfile</t>
+  </si>
+  <si>
+    <t>diagnostic_dest</t>
   </si>
   <si>
     <t>Storage Utilization:</t>
@@ -664,61 +532,442 @@
     <t>sumstorage.datafiles</t>
   </si>
   <si>
-    <t>  datafiles</t>
-  </si>
-  <si>
     <t>sumstorage.tempfiles</t>
   </si>
   <si>
-    <t>  tempfiles</t>
-  </si>
-  <si>
     <t>sumstorage.redologs</t>
   </si>
   <si>
-    <t>  redologs</t>
-  </si>
-  <si>
     <t>sumstorage.controlfiles</t>
   </si>
   <si>
-    <t>  controlfiles</t>
-  </si>
-  <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$DATABASE' の検索</t>
+    <rPh sb="0" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$INSTANCE' の検索</t>
+    <rPh sb="0" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBインスタンス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$OSSTAT' の検索</t>
+    <rPh sb="0" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ホスト構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース構成</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'DBA_REGISTRY' の検索</t>
+    <rPh sb="0" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース機能</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'DBA_FEATURE_USAGE_STATISTICS'の検索</t>
+    <rPh sb="0" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBパラメータ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$PARAMETER' の検索</t>
+    <rPh sb="0" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'PRODUCT_COMPONENT_VERSION' の検索</t>
+    <rPh sb="30" eb="31">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>言語・ロケール</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'SYS.PROPS$' の検索</t>
+    <rPh sb="0" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbinfo.db_cache_size</t>
+  </si>
+  <si>
+    <t>dbinfo.shared_pool_size</t>
+  </si>
+  <si>
+    <t>dbinfo.streams_pool_size</t>
+  </si>
+  <si>
+    <t>dbinfo.large_pool_size</t>
+  </si>
+  <si>
+    <t>dbinfo.java_pool_size</t>
+  </si>
+  <si>
+    <t>dbinfo.db_recovery_file_dest</t>
+  </si>
+  <si>
+    <t>dbinfo.db_recovery_file_dest_size</t>
+  </si>
+  <si>
+    <t>dbinfo.spfile</t>
+  </si>
+  <si>
+    <t>dbinfo.diagnostic_dest</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>dbstorage</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>表領域構成</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'DBA_DATA_FILES'の検索</t>
+    <rPh sb="0" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$LOG' の検索</t>
+    <rPh sb="0" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redoログ構成</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$SGA' の検索</t>
+    <rPh sb="0" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBメモリ構成</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$SYSMETRIC' の検索</t>
+    <rPh sb="0" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース統計</t>
+    <rPh sb="6" eb="8">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'V$SYS_TIME_MODEL' の検索</t>
+    <rPh sb="0" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>処理時間統計</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テーブル構成</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>'DBA_TABLES'の検索</t>
+    <rPh sb="0" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージサマリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>各データベースストレージの総容量[MB]の検索</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【ホスト構成】</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【言語・ロケール】</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【メモリ構成】</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【ストレージ構成】</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【ストレージサマリ】</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【メモリプール割当て】</t>
+    <rPh sb="7" eb="9">
+      <t>ワリア</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プロダクト名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPU構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プラットフォーム</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>表領域[MB]</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>一時表領域[MB]</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redoログ[MB]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>文字コード</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hostconfig.physical_memory_mb</t>
+  </si>
+  <si>
+    <t>physical_memory_bytes[MB]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>hostconfig.physical_memory_mb</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ構成[MB]</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>表領域のディスク総容量[MB]</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>一時表領域のディスク総容量[MB]</t>
+    <rPh sb="0" eb="2">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redoログのディスク総容量[MB]</t>
+  </si>
+  <si>
+    <t>制御ファイルのディスク総容量[MB]</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>【一般情報】</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -750,10 +999,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF3F3F3F"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -785,21 +1040,29 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -815,110 +1078,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -977,51 +1209,325 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2577319587629"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.2577319587629"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7577319587629"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1185567010309"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.5"/>
-    <col collapsed="false" hidden="false" max="1018" min="10" style="0" width="8.75773195876289"/>
-    <col collapsed="false" hidden="false" max="1020" min="1019" style="0" width="11.6185567010309"/>
-    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.73711340206186"/>
+    <col min="1" max="1" width="3.5"/>
+    <col min="2" max="2" width="12.25"/>
+    <col min="3" max="4" width="13.25"/>
+    <col min="5" max="5" width="11.5"/>
+    <col min="6" max="6" width="13.75"/>
+    <col min="7" max="7" width="13.125"/>
+    <col min="8" max="8" width="14"/>
+    <col min="9" max="9" width="16.5"/>
+    <col min="10" max="1018" width="8.75"/>
+    <col min="1019" max="1020" width="11.625"/>
+    <col min="1021" max="1025" width="8.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1048,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1077,8 +1583,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1102,8 +1608,8 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1127,8 +1633,8 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
@@ -1140,8 +1646,8 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -1153,8 +1659,8 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2"/>
@@ -1166,8 +1672,8 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2"/>
@@ -1179,8 +1685,8 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
@@ -1192,8 +1698,8 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2"/>
@@ -1205,8 +1711,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="2"/>
@@ -1218,8 +1724,8 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
@@ -1231,8 +1737,8 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
@@ -1244,8 +1750,8 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
@@ -1257,8 +1763,8 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
@@ -1270,8 +1776,8 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
       <c r="B17" s="2"/>
@@ -1283,8 +1789,8 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
       <c r="B18" s="2"/>
@@ -1296,8 +1802,8 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
       <c r="B19" s="2"/>
@@ -1309,8 +1815,8 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
@@ -1322,8 +1828,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2"/>
@@ -1335,8 +1841,8 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2"/>
@@ -1348,8 +1854,8 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2"/>
@@ -1365,10 +1871,10 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -1376,59 +1882,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMM15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="4.25773195876289"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="3" width="11.5"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="3" width="21.5051546391753"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="3" width="11.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="12.2577319587629"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="24.7474226804124"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="11.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="3" width="8.75773195876289"/>
+    <col min="1" max="1" width="4.25" style="3"/>
+    <col min="2" max="4" width="11.5" style="3"/>
+    <col min="5" max="5" width="30.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="3" customWidth="1"/>
+    <col min="7" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="12" width="13.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="3"/>
+    <col min="14" max="14" width="24.75" style="3"/>
+    <col min="15" max="15" width="11.5" style="3"/>
+    <col min="16" max="1027" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1439,42 +1948,48 @@
         <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
@@ -1486,50 +2001,58 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1542,9 +2065,11 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1557,9 +2082,11 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1572,9 +2099,11 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1588,8 +2117,10 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1603,8 +2134,10 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1618,8 +2151,10 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1633,8 +2168,10 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1648,8 +2185,10 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1663,8 +2202,10 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1678,92 +2219,87 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="3.37113402061856"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="3" width="12.8762886597938"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="17"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="81.3762886597938"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="3" width="9"/>
+    <col min="1" max="1" width="3.375" style="3"/>
+    <col min="2" max="3" width="12.875" style="3"/>
+    <col min="4" max="4" width="17" style="3"/>
+    <col min="5" max="5" width="81.375" style="3"/>
+    <col min="6" max="1025" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1771,41 +2307,32 @@
       <c r="E6" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="4.37113402061856"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="37.6237113402062"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="14.3762886597938"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="6.37113402061856"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="39.7525773195876"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="3" width="8.5"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="3" width="8.5"/>
+    <col min="1" max="1" width="4.375" style="3"/>
+    <col min="2" max="2" width="37.625" style="3"/>
+    <col min="3" max="3" width="14.375" style="3"/>
+    <col min="4" max="4" width="6.375" style="3"/>
+    <col min="5" max="5" width="2.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="3"/>
+    <col min="7" max="8" width="8.5" style="3"/>
+    <col min="9" max="10" width="8.5"/>
+    <col min="11" max="1025" width="8.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1813,7 +2340,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -1821,7 +2348,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1829,346 +2356,356 @@
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C18" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C19" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
@@ -2176,13 +2713,13 @@
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -2190,13 +2727,13 @@
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
@@ -2204,13 +2741,13 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
@@ -2218,13 +2755,13 @@
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
@@ -2232,13 +2769,13 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
@@ -2246,13 +2783,13 @@
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
@@ -2260,13 +2797,13 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
@@ -2274,13 +2811,13 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
@@ -2288,13 +2825,13 @@
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
@@ -2302,13 +2839,13 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
@@ -2316,13 +2853,13 @@
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
@@ -2330,13 +2867,13 @@
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
@@ -2344,13 +2881,13 @@
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
@@ -2358,13 +2895,13 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
@@ -2372,13 +2909,13 @@
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
@@ -2386,13 +2923,13 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
@@ -2400,13 +2937,13 @@
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
@@ -2414,37 +2951,39 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
@@ -2452,13 +2991,13 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
@@ -2466,13 +3005,13 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
@@ -2480,13 +3019,13 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
@@ -2494,37 +3033,39 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
@@ -2532,13 +3073,13 @@
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
@@ -2546,13 +3087,13 @@
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
@@ -2560,13 +3101,13 @@
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
@@ -2574,37 +3115,39 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
@@ -2612,13 +3155,13 @@
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
@@ -2626,13 +3169,13 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
@@ -2640,13 +3183,13 @@
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
@@ -2654,13 +3197,13 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
@@ -2668,13 +3211,13 @@
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
@@ -2682,13 +3225,13 @@
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
@@ -2696,13 +3239,13 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
@@ -2710,13 +3253,13 @@
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
@@ -2724,13 +3267,13 @@
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
@@ -2738,37 +3281,39 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C64" s="8"/>
-      <c r="D64" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
@@ -2776,13 +3321,13 @@
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8" t="s">
@@ -2790,13 +3335,13 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
@@ -2804,13 +3349,13 @@
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
@@ -2818,37 +3363,39 @@
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C70" s="8"/>
-      <c r="D70" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
@@ -2856,10 +3403,10 @@
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>195</v>
@@ -2870,13 +3417,13 @@
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
@@ -2884,13 +3431,13 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
@@ -2898,13 +3445,13 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
@@ -2912,13 +3459,13 @@
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8" t="s">
@@ -2926,13 +3473,13 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
@@ -2940,13 +3487,13 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8" t="s">
@@ -2954,37 +3501,39 @@
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C80" s="8"/>
-      <c r="D80" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+      <c r="D81" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
@@ -2992,13 +3541,13 @@
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
@@ -3006,13 +3555,13 @@
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
@@ -3020,28 +3569,14 @@
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
@@ -3049,38 +3584,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.73711340206186"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.1185567010309"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.11855670103093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37628865979382"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1185567010309"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.75773195876289"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.75773195876289"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="7.25773195876289"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="9.25773195876289"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.61855670103093"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.87628865979382"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="10.8762886597938"/>
-    <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="8.75773195876289"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="11.6185567010309"/>
+    <col min="1" max="1" width="8.75"/>
+    <col min="2" max="4" width="10.125"/>
+    <col min="5" max="5" width="7.125"/>
+    <col min="6" max="6" width="8.375"/>
+    <col min="7" max="7" width="11.125"/>
+    <col min="8" max="10" width="6.75"/>
+    <col min="11" max="11" width="7.75"/>
+    <col min="13" max="13" width="8"/>
+    <col min="14" max="14" width="7.25"/>
+    <col min="15" max="15" width="9.25"/>
+    <col min="16" max="16" width="7.625"/>
+    <col min="17" max="17" width="9.875"/>
+    <col min="18" max="18" width="10.875"/>
+    <col min="19" max="1020" width="8.75"/>
+    <col min="1021" max="1026" width="11.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>18</v>
@@ -3130,116 +3662,125 @@
       <c r="Q1" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+    </row>
+    <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
-        <f aca="false">A3+1</f>
+        <v>172</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="14"/>
@@ -3254,14 +3795,15 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <f aca="false">A4+1</f>
+      <c r="R4" s="14"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="14"/>
@@ -3276,14 +3818,15 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <f aca="false">A5+1</f>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="14"/>
@@ -3298,14 +3841,15 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <f aca="false">A6+1</f>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="14"/>
@@ -3320,14 +3864,15 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
-        <f aca="false">A7+1</f>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="14">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="14"/>
@@ -3342,14 +3887,15 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <f aca="false">A8+1</f>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="14">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="14"/>
@@ -3364,14 +3910,15 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
-        <f aca="false">A9+1</f>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="14"/>
@@ -3386,14 +3933,15 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="15"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
-        <f aca="false">A10+1</f>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="14"/>
@@ -3408,14 +3956,15 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
-        <f aca="false">A11+1</f>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="14"/>
@@ -3430,14 +3979,15 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
-        <f aca="false">A12+1</f>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="14"/>
@@ -3452,14 +4002,15 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
-        <f aca="false">A13+1</f>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="14"/>
@@ -3474,14 +4025,15 @@
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
-        <f aca="false">A14+1</f>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="14"/>
@@ -3496,14 +4048,15 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
-        <f aca="false">A15+1</f>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="14"/>
@@ -3518,14 +4071,15 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
-        <f aca="false">A16+1</f>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="14"/>
@@ -3540,14 +4094,15 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
-        <f aca="false">A17+1</f>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="14"/>
@@ -3562,14 +4117,15 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
-        <f aca="false">A18+1</f>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="14"/>
@@ -3584,14 +4140,15 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
-        <f aca="false">A19+1</f>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="14"/>
@@ -3606,14 +4163,15 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
-        <f aca="false">A20+1</f>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="14"/>
@@ -3628,14 +4186,15 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
-        <f aca="false">A21+1</f>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="14"/>
@@ -3650,14 +4209,15 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
-        <f aca="false">A22+1</f>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="14"/>
@@ -3676,10 +4236,11 @@
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
-        <f aca="false">A23+1</f>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="14"/>
@@ -3698,10 +4259,11 @@
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="n">
-        <f aca="false">A24+1</f>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="14"/>
@@ -3720,10 +4282,11 @@
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="n">
-        <f aca="false">A25+1</f>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="14"/>
@@ -3742,10 +4305,11 @@
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="n">
-        <f aca="false">A26+1</f>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" s="14"/>
@@ -3764,10 +4328,11 @@
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="n">
-        <f aca="false">A27+1</f>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="14"/>
@@ -3786,10 +4351,11 @@
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="n">
-        <f aca="false">A28+1</f>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="14"/>
@@ -3808,10 +4374,11 @@
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="n">
-        <f aca="false">A29+1</f>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="14"/>
@@ -3830,10 +4397,11 @@
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="n">
-        <f aca="false">A30+1</f>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" s="14"/>
@@ -3852,10 +4420,11 @@
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="n">
-        <f aca="false">A31+1</f>
+      <c r="R31" s="14"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A32" s="14">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="14"/>
@@ -3874,10 +4443,11 @@
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="n">
-        <f aca="false">A32+1</f>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A33" s="14">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" s="14"/>
@@ -3896,10 +4466,11 @@
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="n">
-        <f aca="false">A33+1</f>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A34" s="14">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" s="14"/>
@@ -3918,10 +4489,11 @@
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="n">
-        <f aca="false">A34+1</f>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="14">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" s="14"/>
@@ -3940,10 +4512,11 @@
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="n">
-        <f aca="false">A35+1</f>
+      <c r="R35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A36" s="14">
+        <f t="shared" ref="A36:A67" si="1">A35+1</f>
         <v>34</v>
       </c>
       <c r="B36" s="14"/>
@@ -3962,10 +4535,11 @@
       <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="n">
-        <f aca="false">A36+1</f>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A37" s="14">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="14"/>
@@ -3984,10 +4558,11 @@
       <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="n">
-        <f aca="false">A37+1</f>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A38" s="14">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="14"/>
@@ -4006,10 +4581,11 @@
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="14" t="n">
-        <f aca="false">A38+1</f>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="14">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="14"/>
@@ -4028,10 +4604,11 @@
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14" t="n">
-        <f aca="false">A39+1</f>
+      <c r="R39" s="14"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A40" s="14">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="14"/>
@@ -4050,10 +4627,11 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
-        <f aca="false">A40+1</f>
+      <c r="R40" s="14"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A41" s="14">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="14"/>
@@ -4072,10 +4650,11 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
-        <f aca="false">A41+1</f>
+      <c r="R41" s="14"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A42" s="14">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="14"/>
@@ -4094,10 +4673,11 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
-        <f aca="false">A42+1</f>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A43" s="14">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="14"/>
@@ -4116,10 +4696,11 @@
       <c r="O43" s="14"/>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14" t="n">
-        <f aca="false">A43+1</f>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A44" s="14">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="14"/>
@@ -4138,10 +4719,11 @@
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14" t="n">
-        <f aca="false">A44+1</f>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A45" s="14">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="14"/>
@@ -4160,10 +4742,11 @@
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14" t="n">
-        <f aca="false">A45+1</f>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A46" s="14">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="14"/>
@@ -4182,10 +4765,11 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
-        <f aca="false">A46+1</f>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A47" s="14">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="14"/>
@@ -4204,10 +4788,11 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="14" t="n">
-        <f aca="false">A47+1</f>
+      <c r="R47" s="14"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A48" s="14">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B48" s="14"/>
@@ -4226,10 +4811,11 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="14" t="n">
-        <f aca="false">A48+1</f>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A49" s="14">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="14"/>
@@ -4248,10 +4834,11 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <f aca="false">A49+1</f>
+      <c r="R49" s="14"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A50" s="14">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="14"/>
@@ -4270,10 +4857,11 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
-        <f aca="false">A50+1</f>
+      <c r="R50" s="14"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A51" s="14">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B51" s="14"/>
@@ -4292,10 +4880,11 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
-        <f aca="false">A51+1</f>
+      <c r="R51" s="14"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A52" s="14">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B52" s="14"/>
@@ -4314,10 +4903,11 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="n">
-        <f aca="false">A52+1</f>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A53" s="14">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B53" s="14"/>
@@ -4336,10 +4926,11 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
-        <f aca="false">A53+1</f>
+      <c r="R53" s="14"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A54" s="14">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B54" s="14"/>
@@ -4358,10 +4949,11 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14" t="n">
-        <f aca="false">A54+1</f>
+      <c r="R54" s="14"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A55" s="14">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B55" s="14"/>
@@ -4380,10 +4972,11 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
-        <f aca="false">A55+1</f>
+      <c r="R55" s="14"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A56" s="14">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B56" s="14"/>
@@ -4402,10 +4995,11 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
-        <f aca="false">A56+1</f>
+      <c r="R56" s="14"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A57" s="14">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B57" s="14"/>
@@ -4424,10 +5018,11 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
-        <f aca="false">A57+1</f>
+      <c r="R57" s="14"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A58" s="14">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B58" s="14"/>
@@ -4446,10 +5041,11 @@
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
-        <f aca="false">A58+1</f>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A59" s="14">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B59" s="14"/>
@@ -4468,10 +5064,11 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
-        <f aca="false">A59+1</f>
+      <c r="R59" s="14"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A60" s="14">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B60" s="14"/>
@@ -4490,10 +5087,11 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14" t="n">
-        <f aca="false">A60+1</f>
+      <c r="R60" s="14"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A61" s="14">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B61" s="14"/>
@@ -4512,10 +5110,11 @@
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
-        <f aca="false">A61+1</f>
+      <c r="R61" s="14"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A62" s="14">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B62" s="14"/>
@@ -4534,10 +5133,11 @@
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14" t="n">
-        <f aca="false">A62+1</f>
+      <c r="R62" s="14"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A63" s="14">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B63" s="14"/>
@@ -4556,10 +5156,11 @@
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="n">
-        <f aca="false">A63+1</f>
+      <c r="R63" s="14"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A64" s="14">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="14"/>
@@ -4578,10 +5179,11 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14" t="n">
-        <f aca="false">A64+1</f>
+      <c r="R64" s="14"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A65" s="14">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B65" s="14"/>
@@ -4600,10 +5202,11 @@
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14" t="n">
-        <f aca="false">A65+1</f>
+      <c r="R65" s="14"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A66" s="14">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B66" s="14"/>
@@ -4622,10 +5225,11 @@
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14" t="n">
-        <f aca="false">A66+1</f>
+      <c r="R66" s="14"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A67" s="14">
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="14"/>
@@ -4644,10 +5248,11 @@
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="n">
-        <f aca="false">A67+1</f>
+      <c r="R67" s="14"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A68" s="14">
+        <f t="shared" ref="A68:A102" si="2">A67+1</f>
         <v>66</v>
       </c>
       <c r="B68" s="14"/>
@@ -4666,10 +5271,11 @@
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14" t="n">
-        <f aca="false">A68+1</f>
+      <c r="R68" s="14"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A69" s="14">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B69" s="14"/>
@@ -4688,10 +5294,11 @@
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="14" t="n">
-        <f aca="false">A69+1</f>
+      <c r="R69" s="14"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A70" s="14">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B70" s="14"/>
@@ -4710,10 +5317,11 @@
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="14" t="n">
-        <f aca="false">A70+1</f>
+      <c r="R70" s="14"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A71" s="14">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B71" s="14"/>
@@ -4732,10 +5340,11 @@
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="n">
-        <f aca="false">A71+1</f>
+      <c r="R71" s="14"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A72" s="14">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B72" s="14"/>
@@ -4754,10 +5363,11 @@
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="n">
-        <f aca="false">A72+1</f>
+      <c r="R72" s="14"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A73" s="14">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B73" s="14"/>
@@ -4776,10 +5386,11 @@
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="n">
-        <f aca="false">A73+1</f>
+      <c r="R73" s="14"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A74" s="14">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B74" s="14"/>
@@ -4798,10 +5409,11 @@
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="n">
-        <f aca="false">A74+1</f>
+      <c r="R74" s="14"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A75" s="14">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B75" s="14"/>
@@ -4820,10 +5432,11 @@
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="14" t="n">
-        <f aca="false">A75+1</f>
+      <c r="R75" s="14"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A76" s="14">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B76" s="14"/>
@@ -4842,10 +5455,11 @@
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="14" t="n">
-        <f aca="false">A76+1</f>
+      <c r="R76" s="14"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A77" s="14">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B77" s="14"/>
@@ -4864,10 +5478,11 @@
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="14" t="n">
-        <f aca="false">A77+1</f>
+      <c r="R77" s="14"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A78" s="14">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B78" s="14"/>
@@ -4886,10 +5501,11 @@
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="14" t="n">
-        <f aca="false">A78+1</f>
+      <c r="R78" s="14"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A79" s="14">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B79" s="14"/>
@@ -4908,10 +5524,11 @@
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="14" t="n">
-        <f aca="false">A79+1</f>
+      <c r="R79" s="14"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A80" s="14">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B80" s="14"/>
@@ -4930,10 +5547,11 @@
       <c r="O80" s="14"/>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="n">
-        <f aca="false">A80+1</f>
+      <c r="R80" s="14"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A81" s="14">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B81" s="14"/>
@@ -4952,10 +5570,11 @@
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="n">
-        <f aca="false">A81+1</f>
+      <c r="R81" s="14"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A82" s="14">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B82" s="14"/>
@@ -4974,10 +5593,11 @@
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="14" t="n">
-        <f aca="false">A82+1</f>
+      <c r="R82" s="14"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A83" s="14">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B83" s="14"/>
@@ -4996,10 +5616,11 @@
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="14" t="n">
-        <f aca="false">A83+1</f>
+      <c r="R83" s="14"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A84" s="14">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B84" s="14"/>
@@ -5018,10 +5639,11 @@
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="n">
-        <f aca="false">A84+1</f>
+      <c r="R84" s="14"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A85" s="14">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B85" s="14"/>
@@ -5040,10 +5662,11 @@
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="14" t="n">
-        <f aca="false">A85+1</f>
+      <c r="R85" s="14"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A86" s="14">
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B86" s="14"/>
@@ -5062,10 +5685,11 @@
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="n">
-        <f aca="false">A86+1</f>
+      <c r="R86" s="14"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A87" s="14">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B87" s="14"/>
@@ -5084,10 +5708,11 @@
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="14" t="n">
-        <f aca="false">A87+1</f>
+      <c r="R87" s="14"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A88" s="14">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B88" s="14"/>
@@ -5106,10 +5731,11 @@
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="n">
-        <f aca="false">A88+1</f>
+      <c r="R88" s="14"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A89" s="14">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B89" s="14"/>
@@ -5128,10 +5754,11 @@
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="n">
-        <f aca="false">A89+1</f>
+      <c r="R89" s="14"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A90" s="14">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B90" s="14"/>
@@ -5150,10 +5777,11 @@
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="n">
-        <f aca="false">A90+1</f>
+      <c r="R90" s="14"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A91" s="14">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B91" s="14"/>
@@ -5172,10 +5800,11 @@
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="n">
-        <f aca="false">A91+1</f>
+      <c r="R91" s="14"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A92" s="14">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B92" s="14"/>
@@ -5194,10 +5823,11 @@
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="n">
-        <f aca="false">A92+1</f>
+      <c r="R92" s="14"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A93" s="14">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B93" s="14"/>
@@ -5216,10 +5846,11 @@
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="n">
-        <f aca="false">A93+1</f>
+      <c r="R93" s="14"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A94" s="14">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B94" s="14"/>
@@ -5238,10 +5869,11 @@
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="n">
-        <f aca="false">A94+1</f>
+      <c r="R94" s="14"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A95" s="14">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B95" s="14"/>
@@ -5260,10 +5892,11 @@
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="n">
-        <f aca="false">A95+1</f>
+      <c r="R95" s="14"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A96" s="14">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B96" s="14"/>
@@ -5282,10 +5915,11 @@
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="n">
-        <f aca="false">A96+1</f>
+      <c r="R96" s="14"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A97" s="14">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B97" s="14"/>
@@ -5304,10 +5938,11 @@
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="n">
-        <f aca="false">A97+1</f>
+      <c r="R97" s="14"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A98" s="14">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B98" s="14"/>
@@ -5326,10 +5961,11 @@
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="14" t="n">
-        <f aca="false">A98+1</f>
+      <c r="R98" s="14"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A99" s="14">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B99" s="14"/>
@@ -5348,10 +5984,11 @@
       <c r="O99" s="14"/>
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="14" t="n">
-        <f aca="false">A99+1</f>
+      <c r="R99" s="14"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A100" s="14">
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B100" s="14"/>
@@ -5370,10 +6007,11 @@
       <c r="O100" s="14"/>
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="14" t="n">
-        <f aca="false">A100+1</f>
+      <c r="R100" s="14"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A101" s="14">
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B101" s="14"/>
@@ -5392,10 +6030,11 @@
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="14" t="n">
-        <f aca="false">A101+1</f>
+      <c r="R101" s="14"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A102" s="14">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B102" s="14"/>
@@ -5414,12 +6053,13 @@
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
+      <c r="R102" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\template\Oracle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\template\Oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Oracle)" sheetId="4" r:id="rId4"/>
-    <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId5"/>
+    <sheet name="利用手順" sheetId="6" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Oracle)" sheetId="4" r:id="rId5"/>
+    <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$76</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1533505064" val="934" rev="123" revOS="4"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="291">
   <si>
     <t>共通設定</t>
   </si>
@@ -763,6 +767,451 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>0. はじめに</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* Oracleデータベースの構成情報を採取します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>* .\template\Oracle が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「getconfig -g {プロジェクト名}」で、プロジェクトディレクトリを作成します。作成したプロジェクトディレクトリに移動します。</t>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. プロジェクトディレクトリの作成と移動</t>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>「.\template\Oracle\Oracle設定チェックシート.xlsx」(本ファイル)を開きます。</t>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査するシナリオID Oracle を指定します。</t>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID Oracle を指定します。</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベースのインスタンス名を入力します。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベース名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="12" eb="14">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象データベース名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>検査対象データベースの接続IPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定ユーザ</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のユーザ入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したユーザを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特定ポート</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のポート入力で、対象データベース固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したポートを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>notepad++ .\template\Oracle\config_oracle.groovy</t>
+  </si>
+  <si>
+    <t>// Oracle接続情報</t>
+  </si>
+  <si>
+    <t>account.Oracle.Test.user     = 'zabbix'</t>
+  </si>
+  <si>
+    <t>account.Oracle.Test.password = 'zabbix'</t>
+  </si>
+  <si>
+    <t>account.Oracle.Test.port     = 1521</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -819,7 +1268,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -850,8 +1299,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -926,6 +1381,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -935,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,6 +1563,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,6 +1919,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:N76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="1021" width="8.75" customWidth="1"/>
+    <col min="1022" max="1023" width="11.625" customWidth="1"/>
+    <col min="1024" max="1028" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>8</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C47" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="22"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C51" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="28"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C53" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="28"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C54" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="28"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C55" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="31"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C61" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C67" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C72" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C76" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C29:L29"/>
+  </mergeCells>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
@@ -1331,18 +2570,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -1758,11 +2997,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2114,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
@@ -2206,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK85"/>
   <sheetViews>
@@ -3500,7 +4739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R102"/>
   <sheetViews>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -1268,7 +1268,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1303,6 +1303,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1507,7 +1513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1562,12 +1568,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1602,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1922,7 +1937,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1941,595 +1956,1498 @@
     <col min="1024" max="1028" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="31" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="31" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="31" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="31" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="31" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="31" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="31" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="31" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C24" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="31" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="31" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="32" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="K31" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="31"/>
+      <c r="B32" s="34">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="2">
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34">
         <v>2</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="G33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="2">
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="31"/>
+      <c r="B34" s="34">
         <v>3</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="2">
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
+      <c r="B35" s="34">
         <v>4</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B37" s="2">
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="34">
         <v>6</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B38" s="2">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="34">
         <v>7</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B39" s="2">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34">
         <v>8</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B40" s="2">
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34">
         <v>9</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B41" s="2">
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34">
         <v>10</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="31" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C47" s="20" t="s">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="22"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="31" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C51" s="23" t="s">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="25"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="28"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C53" s="26" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="28"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C54" s="26" t="s">
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="28"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C55" s="29" t="s">
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="31"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="31" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C61" s="20" t="s">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="22"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="31"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="31" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C67" s="20" t="s">
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="22"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="31"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="20" t="s">
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="22"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="31"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C76" s="20" t="s">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="31"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="22"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2570,18 +3488,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="294">
   <si>
     <t>共通設定</t>
   </si>
@@ -1211,6 +1211,21 @@
   </si>
   <si>
     <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択テンプレート</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Oracle</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1604,19 +1619,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1937,9 +1952,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1957,542 +1972,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="33" t="s">
         <v>0</v>
       </c>
@@ -2505,392 +2520,392 @@
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="H31" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="32" t="s">
+      <c r="K31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="32" t="s">
+      <c r="L31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34">
+      <c r="A32" s="30"/>
+      <c r="B32" s="32">
         <v>1</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="34" t="s">
+      <c r="G32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="34">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32">
         <v>2</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="34" t="s">
+      <c r="G33" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34">
+      <c r="A34" s="30"/>
+      <c r="B34" s="32">
         <v>3</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="34">
+      <c r="A35" s="30"/>
+      <c r="B35" s="32">
         <v>4</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="34">
+      <c r="A36" s="30"/>
+      <c r="B36" s="32">
         <v>5</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34">
+      <c r="A37" s="30"/>
+      <c r="B37" s="32">
         <v>6</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
-      <c r="B38" s="34">
+      <c r="A38" s="30"/>
+      <c r="B38" s="32">
         <v>7</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34">
+      <c r="A39" s="30"/>
+      <c r="B39" s="32">
         <v>8</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="34">
+      <c r="A40" s="30"/>
+      <c r="B40" s="32">
         <v>9</v>
       </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="31"/>
-      <c r="B41" s="34">
+      <c r="A41" s="30"/>
+      <c r="B41" s="32">
         <v>10</v>
       </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="18" t="s">
         <v>285</v>
       </c>
@@ -2905,64 +2920,64 @@
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="20"/>
-      <c r="O47" s="31"/>
+      <c r="O47" s="30"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
         <v>286</v>
       </c>
@@ -2977,11 +2992,11 @@
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="23"/>
-      <c r="O51" s="31"/>
+      <c r="O51" s="30"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="24"/>
       <c r="D52" s="25"/>
       <c r="E52" s="25"/>
@@ -2994,11 +3009,11 @@
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
       <c r="N52" s="26"/>
-      <c r="O52" s="31"/>
+      <c r="O52" s="30"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="24" t="s">
         <v>287</v>
       </c>
@@ -3013,11 +3028,11 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="26"/>
-      <c r="O53" s="31"/>
+      <c r="O53" s="30"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="24" t="s">
         <v>288</v>
       </c>
@@ -3032,11 +3047,11 @@
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="26"/>
-      <c r="O54" s="31"/>
+      <c r="O54" s="30"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
         <v>289</v>
       </c>
@@ -3051,100 +3066,100 @@
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
       <c r="N55" s="29"/>
-      <c r="O55" s="31"/>
+      <c r="O55" s="30"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
         <v>290</v>
       </c>
@@ -3159,100 +3174,100 @@
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="20"/>
-      <c r="O61" s="31"/>
+      <c r="O61" s="30"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="18" t="s">
         <v>263</v>
       </c>
@@ -3267,83 +3282,83 @@
       <c r="L67" s="19"/>
       <c r="M67" s="19"/>
       <c r="N67" s="20"/>
-      <c r="O67" s="31"/>
+      <c r="O67" s="30"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="18" t="s">
         <v>266</v>
       </c>
@@ -3358,64 +3373,64 @@
       <c r="L72" s="19"/>
       <c r="M72" s="19"/>
       <c r="N72" s="20"/>
-      <c r="O72" s="31"/>
+      <c r="O72" s="30"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31" t="s">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="30"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="18" t="s">
         <v>268</v>
       </c>
@@ -3430,24 +3445,37 @@
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="20"/>
-      <c r="O76" s="31"/>
+      <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C81" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3467,9 +3495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3488,18 +3514,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -3905,6 +3931,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$80:$C$81</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1533505064" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="テンプレート(Oracle)" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$80</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="298">
   <si>
     <t>共通設定</t>
   </si>
@@ -774,9 +774,6 @@
   </si>
   <si>
     <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>対象サーバ</t>
@@ -902,10 +899,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>* Oracleデータベースの構成情報を採取します。</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1210,10 +1203,6 @@
     <t>account.Oracle.Test.port     = 1521</t>
   </si>
   <si>
-    <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>(*)</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -1226,6 +1215,40 @@
   </si>
   <si>
     <t>Oracle</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Redmine プラグインデータへのロード</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>Redmine チケット登録</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Oracle\config_oracle.groovy</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>getconfig -c .\template\Oracle\config_oracle.groovy -rp {Redmineプロジェクト名}</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。(*)が必須入力項目となります。</t>
+    <rPh sb="40" eb="42">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>(*)</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1327,7 +1350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1519,6 +1542,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1528,7 +1564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,6 +1668,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1952,9 +1994,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2027,7 +2069,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -2046,7 +2088,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -2081,7 +2123,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -2118,7 +2160,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -2190,7 +2232,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -2209,7 +2251,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2244,12 +2286,14 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2265,12 +2309,14 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C17" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2286,12 +2332,14 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C18" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2307,12 +2355,14 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C19" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>249</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>250</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -2330,10 +2380,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2349,12 +2399,14 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30" t="s">
+        <v>297</v>
+      </c>
       <c r="C21" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2372,10 +2424,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -2393,10 +2445,10 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -2414,10 +2466,10 @@
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2435,10 +2487,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2472,7 +2524,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -2833,7 +2885,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -2870,7 +2922,7 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -2907,7 +2959,7 @@
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -2942,7 +2994,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -2979,7 +3031,7 @@
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -3015,7 +3067,7 @@
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -3034,7 +3086,7 @@
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3053,7 +3105,7 @@
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -3087,7 +3139,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -3124,7 +3176,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -3161,7 +3213,7 @@
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -3195,7 +3247,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -3232,7 +3284,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -3269,7 +3321,7 @@
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -3304,7 +3356,7 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -3323,7 +3375,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -3360,7 +3412,7 @@
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -3395,7 +3447,7 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -3431,50 +3483,124 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="20"/>
+      <c r="C76" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
       <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
+      <c r="C77" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="20"/>
       <c r="O77" s="30"/>
     </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+    </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>291</v>
-      </c>
-      <c r="C79" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C81" t="s">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="35" t="s">
         <v>293</v>
+      </c>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="30"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3935,7 +4061,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>利用手順!$C$80:$C$81</xm:f>
+            <xm:f>利用手順!$C$84:$C$85</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="308">
   <si>
     <t>共通設定</t>
   </si>
@@ -1249,6 +1249,64 @@
   </si>
   <si>
     <t>(*)</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>一般情報</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBパラメータ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DB設定</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>基本情報</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>タイムモデル</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1564,7 +1622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,16 +1722,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1996,7 +2057,7 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2560,18 +2621,18 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -3483,7 +3544,7 @@
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="33" t="s">
         <v>291</v>
       </c>
       <c r="D76" s="30"/>
@@ -3502,7 +3563,7 @@
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>292</v>
       </c>
       <c r="D77" s="19"/>
@@ -3521,7 +3582,7 @@
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
-      <c r="C78" s="35"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
@@ -3538,7 +3599,7 @@
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="33" t="s">
         <v>293</v>
       </c>
       <c r="D79" s="30"/>
@@ -3557,7 +3618,7 @@
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="34" t="s">
         <v>295</v>
       </c>
       <c r="D80" s="19"/>
@@ -3640,18 +3701,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -4527,1283 +4588,1533 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK85"/>
+  <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="3" customWidth="1"/>
-    <col min="7" max="8" width="8.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="1025" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="3" customWidth="1"/>
+    <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>65</v>
+      <c r="B4" s="37" t="s">
+        <v>298</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>71</v>
+      <c r="B5" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>74</v>
+      <c r="B6" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>77</v>
+      <c r="B7" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>80</v>
+      <c r="B8" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>83</v>
+      <c r="B9" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>86</v>
+      <c r="B10" s="37" t="s">
+        <v>300</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>89</v>
+      <c r="B11" s="37" t="s">
+        <v>301</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>92</v>
+      <c r="B12" s="37" t="s">
+        <v>302</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>96</v>
+      <c r="B13" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>99</v>
+      <c r="B14" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="G14" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>102</v>
+      <c r="B15" s="37" t="s">
+        <v>305</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>105</v>
+      <c r="B16" s="37" t="s">
+        <v>306</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>108</v>
+      <c r="B17" s="37" t="s">
+        <v>307</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>111</v>
+      <c r="B18" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="G18" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>114</v>
+      <c r="B19" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
+      <c r="B21" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>120</v>
+      <c r="B22" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>122</v>
+      <c r="B23" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
-        <v>124</v>
+      <c r="B24" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
-        <v>126</v>
+      <c r="B25" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>128</v>
+      <c r="B26" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>50</v>
+      <c r="B27" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
-      <c r="B28" s="8" t="s">
-        <v>131</v>
+      <c r="B28" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>133</v>
+      <c r="B29" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
-      <c r="B30" s="8" t="s">
-        <v>135</v>
+      <c r="B30" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
-      <c r="B31" s="8" t="s">
-        <v>137</v>
+      <c r="B31" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>139</v>
+      <c r="B32" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
-      <c r="B33" s="8" t="s">
-        <v>141</v>
+      <c r="B33" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="8" t="s">
-        <v>143</v>
+      <c r="B34" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
-      <c r="B35" s="8" t="s">
-        <v>145</v>
+      <c r="B35" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
-      <c r="B36" s="8" t="s">
-        <v>147</v>
+      <c r="B36" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
-      <c r="B37" s="8" t="s">
-        <v>149</v>
+      <c r="B37" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
-      <c r="B38" s="8" t="s">
-        <v>151</v>
+      <c r="B38" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
-      <c r="B39" s="8" t="s">
-        <v>153</v>
+      <c r="B39" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
-      <c r="B41" s="8" t="s">
-        <v>157</v>
+      <c r="B41" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
-      <c r="B42" s="8" t="s">
-        <v>159</v>
+      <c r="B42" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
-      <c r="B43" s="8" t="s">
-        <v>51</v>
+      <c r="B43" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
-      <c r="B44" s="8" t="s">
-        <v>162</v>
+      <c r="B44" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
-      <c r="B45" s="8" t="s">
-        <v>53</v>
+      <c r="B45" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
-      <c r="B47" s="8" t="s">
-        <v>167</v>
+      <c r="B47" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
-      <c r="B48" s="8" t="s">
-        <v>169</v>
+      <c r="B48" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
-      <c r="B49" s="8" t="s">
-        <v>54</v>
+      <c r="B49" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
-      <c r="B50" s="8" t="s">
-        <v>172</v>
+      <c r="B50" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
-      <c r="B51" s="8" t="s">
-        <v>174</v>
+      <c r="B51" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
-      <c r="B53" s="8" t="s">
-        <v>178</v>
+      <c r="B53" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
-      <c r="B54" s="8" t="s">
-        <v>180</v>
+      <c r="B54" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
-      <c r="B55" s="8" t="s">
-        <v>182</v>
+      <c r="B55" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="8" t="s">
-        <v>184</v>
+      <c r="B56" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
-      <c r="B57" s="8" t="s">
-        <v>186</v>
+      <c r="B57" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
-      <c r="B58" s="8" t="s">
-        <v>188</v>
+      <c r="B58" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
-      <c r="B59" s="8" t="s">
-        <v>190</v>
+      <c r="B59" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
-      <c r="B60" s="8" t="s">
-        <v>192</v>
+      <c r="B60" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
-      <c r="B61" s="8" t="s">
-        <v>194</v>
+      <c r="B61" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
-      <c r="B62" s="8" t="s">
-        <v>196</v>
+      <c r="B62" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
-      <c r="B63" s="8" t="s">
-        <v>198</v>
+      <c r="B63" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
-      <c r="B65" s="8" t="s">
-        <v>202</v>
+      <c r="B65" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
-      <c r="B66" s="8" t="s">
-        <v>204</v>
+      <c r="B66" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="8" t="s">
-        <v>206</v>
+      <c r="B67" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="8" t="s">
-        <v>208</v>
+      <c r="B68" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
-      <c r="B69" s="8" t="s">
-        <v>210</v>
+      <c r="B69" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
       <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="8"/>
+      <c r="G70" s="8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
-      <c r="B71" s="8" t="s">
-        <v>214</v>
+      <c r="B71" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
-      <c r="B72" s="8" t="s">
-        <v>216</v>
+      <c r="B72" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
-      <c r="B73" s="8" t="s">
-        <v>218</v>
+      <c r="B73" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
-      <c r="B74" s="8" t="s">
-        <v>220</v>
+      <c r="B74" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
-      <c r="B75" s="8" t="s">
-        <v>222</v>
+      <c r="B75" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
-      <c r="B76" s="8" t="s">
-        <v>224</v>
+      <c r="B76" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
-      <c r="B77" s="8" t="s">
-        <v>226</v>
+      <c r="B77" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
-      <c r="B78" s="8" t="s">
-        <v>228</v>
+      <c r="B78" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8"/>
-      <c r="B79" s="8" t="s">
-        <v>230</v>
+      <c r="B79" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
-      <c r="B80" s="8" t="s">
-        <v>232</v>
+      <c r="B80" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
-      <c r="B82" s="8" t="s">
-        <v>55</v>
+      <c r="B82" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
-      <c r="B83" s="8" t="s">
-        <v>56</v>
+      <c r="B83" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
-      <c r="B84" s="8" t="s">
-        <v>57</v>
+      <c r="B84" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
-        <v>239</v>
+      <c r="B85" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="986" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="364">
   <si>
     <t>共通設定</t>
   </si>
@@ -1256,49 +1256,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>一般情報</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>DBパラメータ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>DBバージョン</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>DB設定</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>基本情報</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ストレージ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>メモリ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>システム情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -1306,8 +1263,301 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>タイムモデル</t>
+    <t>【一般情報】</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>インスタンス名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベースユニーク名</t>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBブロックサイズ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>DBID</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンパチブルバージョン</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース製品名</t>
+    <rPh sb="6" eb="9">
+      <t>セイヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>エディション</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>クラスターデータベース</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>クラスターインスタンス</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カレントSCN</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>RAC情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>データベース設定</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>オープンモード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>フォースロギング</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログモード</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>アーカイバー</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>採取SQL実行ログ</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ホスト構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>言語・ロケール</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリ構成</t>
+    <rPh sb="3" eb="5">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>メモリプール割当て</t>
+    <rPh sb="6" eb="8">
+      <t>ワリア</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージ構成</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ストレージサマリ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CPUコア数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>トータルCPU数</t>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>物理メモリMB</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>プラットフォーム名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パラメータ：nls_territory</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_language</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_nchar_characterset</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_length_semantics</t>
+  </si>
+  <si>
+    <t>パラメータ：nls_characterset</t>
+  </si>
+  <si>
+    <t>パラメータ：memory_management</t>
+  </si>
+  <si>
+    <t>パラメータ：statistics_level</t>
+  </si>
+  <si>
+    <t>パラメータ：sga_target</t>
+  </si>
+  <si>
+    <t>パラメータ：sga_max_size</t>
+  </si>
+  <si>
+    <t>パラメータ：memory_target</t>
+  </si>
+  <si>
+    <t>パラメータ：memory_max_target</t>
+  </si>
+  <si>
+    <t>パラメータ：pga_aggregate_target</t>
+  </si>
+  <si>
+    <t>SGA データベースバッファー</t>
+  </si>
+  <si>
+    <t>SGA 固定サイズ</t>
+  </si>
+  <si>
+    <t>SGA REDOバッファー</t>
+  </si>
+  <si>
+    <t>SGA 可変サイズ</t>
+  </si>
+  <si>
+    <t>パラメータ：db_cache_size</t>
+  </si>
+  <si>
+    <t>パラメータ：shared_pool_size</t>
+  </si>
+  <si>
+    <t>パラメータ：streams_pool_size</t>
+  </si>
+  <si>
+    <t>パラメータ：large_pool_size</t>
+  </si>
+  <si>
+    <t>パラメータ：java_pool_size</t>
+  </si>
+  <si>
+    <t>REDOログサイズ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>REDOログ数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>REDOログミラーリング</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パラメータ：db_recovery_file_dest</t>
+  </si>
+  <si>
+    <t>パラメータ：db_recovery_file_dest_size</t>
+  </si>
+  <si>
+    <t>パラメータ：default_tbs_type</t>
+  </si>
+  <si>
+    <t>パラメータ：default_permanent_tablespace</t>
+  </si>
+  <si>
+    <t>パラメータ：default_temp_tablespace</t>
+  </si>
+  <si>
+    <t>パラメータ：spfile</t>
+  </si>
+  <si>
+    <t>パラメータ：diagnostic_dest</t>
   </si>
 </sst>
 </file>
@@ -1728,13 +1978,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2621,18 +2871,18 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -3682,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3701,18 +3951,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -4590,13 +4840,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A40" zoomScale="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
@@ -4639,7 +4889,7 @@
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>298</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -4659,1456 +4909,1588 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>82</v>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>303</v>
+      <c r="A9" s="8"/>
+      <c r="B9" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>85</v>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>300</v>
+      <c r="A10" s="8"/>
+      <c r="B10" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>88</v>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>301</v>
+      <c r="A11" s="8"/>
+      <c r="B11" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>91</v>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>302</v>
+      <c r="A12" s="8"/>
+      <c r="B12" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>94</v>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>304</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>98</v>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>304</v>
+      <c r="A14" s="8"/>
+      <c r="B14" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>101</v>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>305</v>
+      <c r="A15" s="8"/>
+      <c r="B15" s="35" t="s">
+        <v>299</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>104</v>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>306</v>
+      <c r="A16" s="8"/>
+      <c r="B16" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>107</v>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>307</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>110</v>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>304</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>113</v>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>304</v>
+      <c r="A19" s="8"/>
+      <c r="B19" s="35" t="s">
+        <v>315</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>116</v>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
-      <c r="B20" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C20" s="8"/>
+      <c r="B20" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>316</v>
+      </c>
       <c r="D20" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C21" s="8"/>
+      <c r="B21" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>317</v>
+      </c>
       <c r="D21" s="8" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22" s="8"/>
+      <c r="B22" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>319</v>
+      </c>
       <c r="D22" s="8" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="8"/>
+      <c r="B23" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="D23" s="8" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
-      <c r="B24" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C24" s="8"/>
+      <c r="B24" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="D24" s="8" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
-      <c r="B25" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="8"/>
+      <c r="B25" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="D25" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
-      <c r="B26" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="B26" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>328</v>
+      </c>
       <c r="D26" s="8" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
-      <c r="B27" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" s="8"/>
+      <c r="B27" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="D27" s="8" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
-      <c r="B28" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C28" s="8"/>
+      <c r="B28" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>330</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
-      <c r="B29" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C29" s="8"/>
+      <c r="B29" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>331</v>
+      </c>
       <c r="D29" s="8" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
-      <c r="B30" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C30" s="8"/>
+      <c r="B30" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="D30" s="8" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
-      <c r="B31" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C31" s="8"/>
+      <c r="B31" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
-      <c r="B32" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="8"/>
+      <c r="B32" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
-      <c r="B33" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C33" s="8"/>
+      <c r="B33" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" s="8" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
-      <c r="B34" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="B34" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="D34" s="8" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
-      <c r="B35" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C35" s="8"/>
+      <c r="B35" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
-      <c r="B36" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>337</v>
+      </c>
       <c r="D36" s="8" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
-      <c r="B37" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="D37" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
-      <c r="B38" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="B38" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="D38" s="8" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
-      <c r="B39" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C39" s="8"/>
+      <c r="B39" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="D39" s="8" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
-      <c r="B40" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C40" s="8"/>
+      <c r="B40" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="D40" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
-      <c r="B41" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="B41" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="D41" s="8" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
-      <c r="B42" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" s="8"/>
+      <c r="B42" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
-      <c r="B43" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C43" s="8"/>
+      <c r="B43" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="D43" s="8" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
-      <c r="B44" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="B44" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="D44" s="8" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
-      <c r="B45" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="8"/>
+      <c r="B45" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="D45" s="8" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
-      <c r="B46" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="8"/>
+      <c r="B46" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="D46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="8"/>
+        <v>194</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
-      <c r="B47" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="8"/>
+      <c r="B47" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
-      <c r="B48" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="8"/>
+      <c r="B48" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="D48" s="8" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
-      <c r="B49" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="8"/>
+      <c r="B49" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
-      <c r="B50" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="8"/>
+      <c r="B50" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
-      <c r="B51" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="8"/>
+      <c r="B51" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>351</v>
+      </c>
       <c r="D51" s="8" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
-      <c r="B52" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="8"/>
+      <c r="B52" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="D52" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>208</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
-      <c r="B53" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C53" s="8"/>
+      <c r="B53" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>353</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
-      <c r="B54" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C54" s="8"/>
+      <c r="B54" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="D54" s="8" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
-      <c r="B55" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C55" s="8"/>
+      <c r="B55" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="D55" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
-      <c r="B56" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C56" s="8"/>
+      <c r="B56" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
-      <c r="B57" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" s="8"/>
+      <c r="B57" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>358</v>
+      </c>
       <c r="D57" s="8" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
-      <c r="B58" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C58" s="8"/>
+      <c r="B58" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>359</v>
+      </c>
       <c r="D58" s="8" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
-      <c r="B59" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C59" s="8"/>
+      <c r="B59" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>360</v>
+      </c>
       <c r="D59" s="8" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
-      <c r="B60" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C60" s="8"/>
+      <c r="B60" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>361</v>
+      </c>
       <c r="D60" s="8" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
-      <c r="B61" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C61" s="8"/>
+      <c r="B61" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="D61" s="8" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
-      <c r="B62" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C62" s="8"/>
+      <c r="B62" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>363</v>
+      </c>
       <c r="D62" s="8" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
-      <c r="B63" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C63" s="8"/>
+      <c r="B63" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="D63" s="8" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="8" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
-      <c r="B64" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C64" s="8"/>
+      <c r="B64" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>356</v>
+      </c>
       <c r="D64" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
-      <c r="B65" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" s="8"/>
+      <c r="B65" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>354</v>
+      </c>
       <c r="D65" s="8" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
-      <c r="B66" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C66" s="8"/>
+      <c r="B66" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="D66" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
-      <c r="B67" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="8"/>
+      <c r="B67" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
-      <c r="B68" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C68" s="8"/>
+      <c r="B68" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="D68" s="8" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
-      <c r="B69" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C69" s="8"/>
+      <c r="B69" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="D69" s="8" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
-      <c r="B70" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C70" s="8"/>
+      <c r="B70" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="D70" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="8"/>
+        <v>239</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="8"/>
-      <c r="B71" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="8"/>
+      <c r="A71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D71" s="8" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8" t="s">
-        <v>215</v>
+      <c r="F71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="8"/>
-      <c r="B72" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C72" s="8"/>
+      <c r="A72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D72" s="8" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8" t="s">
-        <v>217</v>
+      <c r="F72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
-      <c r="B73" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="D73" s="8" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8" t="s">
-        <v>219</v>
+      <c r="F73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A74" s="8"/>
-      <c r="B74" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C74" s="8"/>
+      <c r="A74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D74" s="8" t="s">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8" t="s">
-        <v>221</v>
+      <c r="F74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A75" s="8"/>
-      <c r="B75" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="D75" s="8" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8" t="s">
-        <v>223</v>
+      <c r="F75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A76" s="8"/>
-      <c r="B76" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C76" s="8"/>
+      <c r="A76" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="D76" s="8" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8" t="s">
-        <v>225</v>
+      <c r="F76" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="8"/>
-      <c r="B77" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C77" s="8"/>
+      <c r="A77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>90</v>
+      </c>
       <c r="D77" s="8" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8" t="s">
-        <v>227</v>
+      <c r="F77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="8"/>
-      <c r="B78" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="8"/>
+      <c r="A78" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="D78" s="8" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8" t="s">
-        <v>229</v>
+      <c r="F78" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
-      <c r="B79" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C79" s="8"/>
+      <c r="A79" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8" t="s">
-        <v>231</v>
+      <c r="F79" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A80" s="8"/>
-      <c r="B80" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C80" s="8"/>
+      <c r="A80" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="D80" s="8" t="s">
-        <v>232</v>
+        <v>99</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8" t="s">
-        <v>233</v>
+      <c r="F80" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A81" s="8"/>
-      <c r="B81" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="D81" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8" t="s">
-        <v>235</v>
+        <v>102</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A82" s="8"/>
-      <c r="B82" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C82" s="8"/>
+      <c r="A82" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="D82" s="8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8" t="s">
-        <v>236</v>
+      <c r="F82" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A83" s="8"/>
-      <c r="B83" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C83" s="8"/>
+      <c r="A83" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8" t="s">
-        <v>237</v>
+      <c r="F83" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="8"/>
-      <c r="B84" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C84" s="8"/>
+      <c r="A84" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D84" s="8" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8" t="s">
-        <v>238</v>
+      <c r="F84" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
-      <c r="B85" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="C85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>239</v>
+        <v>114</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8" t="s">
-        <v>240</v>
+      <c r="F85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -4840,9 +4840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4850,9 +4848,9 @@
     <col min="2" max="2" width="18.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="37.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" customWidth="1"/>
     <col min="8" max="9" width="8.5" style="3" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="1026" width="8.5" style="3" customWidth="1"/>
@@ -4899,13 +4897,13 @@
         <v>65</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4920,10 +4918,10 @@
         <v>117</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>118</v>
       </c>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
@@ -4936,12 +4934,12 @@
       <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4955,12 +4953,12 @@
       <c r="D7" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="G7" s="8" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4974,12 +4972,12 @@
       <c r="D8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="G8" s="8" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4993,12 +4991,12 @@
       <c r="D9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="G9" s="8" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5012,12 +5010,12 @@
       <c r="D10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="G10" s="8" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5031,12 +5029,12 @@
       <c r="D11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="G11" s="8" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5050,12 +5048,12 @@
       <c r="D12" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="G12" s="8" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5069,12 +5067,12 @@
       <c r="D13" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="G13" s="8" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5088,12 +5086,12 @@
       <c r="D14" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="G14" s="8" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5107,12 +5105,12 @@
       <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5126,12 +5124,12 @@
       <c r="D16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="G16" s="8" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5145,12 +5143,12 @@
       <c r="D17" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="G17" s="8" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5164,12 +5162,12 @@
       <c r="D18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="G18" s="8" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5183,12 +5181,12 @@
       <c r="D19" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="G19" s="8" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5202,12 +5200,12 @@
       <c r="D20" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="G20" s="8" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5221,12 +5219,12 @@
       <c r="D21" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="G21" s="8" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5240,12 +5238,12 @@
       <c r="D22" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="G22" s="8" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5259,12 +5257,12 @@
       <c r="D23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="G23" s="8" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5278,12 +5276,12 @@
       <c r="D24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G24" s="8" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5298,10 +5296,10 @@
         <v>155</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>156</v>
       </c>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
@@ -5314,12 +5312,12 @@
       <c r="D26" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="G26" s="8" t="s">
-        <v>158</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5333,12 +5331,12 @@
       <c r="D27" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G27" s="8" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5352,12 +5350,12 @@
       <c r="D28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="G28" s="8" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5371,12 +5369,12 @@
       <c r="D29" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="G29" s="8" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5390,12 +5388,12 @@
       <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="G30" s="8" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5410,10 +5408,10 @@
         <v>165</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
@@ -5426,12 +5424,12 @@
       <c r="D32" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="G32" s="8" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5445,12 +5443,12 @@
       <c r="D33" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="G33" s="8" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5464,12 +5462,12 @@
       <c r="D34" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="G34" s="8" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5483,12 +5481,12 @@
       <c r="D35" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="G35" s="8" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5502,12 +5500,12 @@
       <c r="D36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="G36" s="8" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5522,10 +5520,10 @@
         <v>176</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>177</v>
       </c>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
@@ -5538,12 +5536,12 @@
       <c r="D38" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="G38" s="8" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5557,12 +5555,12 @@
       <c r="D39" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="G39" s="8" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5576,12 +5574,12 @@
       <c r="D40" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="G40" s="8" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5595,12 +5593,12 @@
       <c r="D41" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="G41" s="8" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5614,12 +5612,12 @@
       <c r="D42" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="G42" s="8" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5633,12 +5631,12 @@
       <c r="D43" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="G43" s="8" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5652,12 +5650,12 @@
       <c r="D44" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="G44" s="8" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5671,12 +5669,12 @@
       <c r="D45" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="G45" s="8" t="s">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5690,12 +5688,12 @@
       <c r="D46" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="G46" s="8" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5709,12 +5707,12 @@
       <c r="D47" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
+        <v>197</v>
+      </c>
       <c r="G47" s="8" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5728,12 +5726,12 @@
       <c r="D48" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="G48" s="8" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5748,10 +5746,10 @@
         <v>200</v>
       </c>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="8" t="s">
         <v>201</v>
       </c>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
@@ -5764,12 +5762,12 @@
       <c r="D50" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>205</v>
+      </c>
       <c r="G50" s="8" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5783,12 +5781,12 @@
       <c r="D51" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="G51" s="8" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5802,12 +5800,12 @@
       <c r="D52" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>209</v>
+      </c>
       <c r="G52" s="8" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5821,12 +5819,12 @@
       <c r="D53" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="G53" s="8" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5840,12 +5838,12 @@
       <c r="D54" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="G54" s="8" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5860,10 +5858,10 @@
         <v>212</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>213</v>
       </c>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
@@ -5876,12 +5874,12 @@
       <c r="D56" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="G56" s="8" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5895,12 +5893,12 @@
       <c r="D57" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="G57" s="8" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5914,12 +5912,12 @@
       <c r="D58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="G58" s="8" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5933,12 +5931,12 @@
       <c r="D59" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="G59" s="8" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5952,12 +5950,12 @@
       <c r="D60" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8" t="s">
+        <v>229</v>
+      </c>
       <c r="G60" s="8" t="s">
-        <v>229</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5971,12 +5969,12 @@
       <c r="D61" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="G61" s="8" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5990,12 +5988,12 @@
       <c r="D62" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="G62" s="8" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6009,12 +6007,12 @@
       <c r="D63" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="G63" s="8" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6028,12 +6026,12 @@
       <c r="D64" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="G64" s="8" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6047,12 +6045,12 @@
       <c r="D65" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="G65" s="8" t="s">
-        <v>215</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6067,10 +6065,10 @@
         <v>234</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>235</v>
       </c>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
@@ -6083,12 +6081,12 @@
       <c r="D67" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="G67" s="8" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6102,12 +6100,12 @@
       <c r="D68" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="G68" s="8" t="s">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6121,12 +6119,12 @@
       <c r="D69" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="G69" s="8" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6140,12 +6138,12 @@
       <c r="D70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="G70" s="8" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6162,13 +6160,13 @@
         <v>71</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="16" t="s">
         <v>73</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6185,13 +6183,13 @@
         <v>74</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="F72" s="16" t="s">
         <v>76</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6208,13 +6206,13 @@
         <v>77</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="F73" s="16" t="s">
         <v>79</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6231,13 +6229,13 @@
         <v>80</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="F74" s="16" t="s">
         <v>82</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6254,13 +6252,13 @@
         <v>83</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="F75" s="16" t="s">
         <v>85</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6277,13 +6275,13 @@
         <v>86</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="F76" s="16" t="s">
         <v>88</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6300,13 +6298,13 @@
         <v>89</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="F77" s="17" t="s">
         <v>91</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6323,13 +6321,13 @@
         <v>92</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="F78" s="16" t="s">
         <v>94</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6346,13 +6344,13 @@
         <v>96</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="F79" s="17" t="s">
         <v>98</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6369,13 +6367,13 @@
         <v>99</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6392,13 +6390,13 @@
         <v>102</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6415,13 +6413,13 @@
         <v>105</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="F82" s="16" t="s">
         <v>107</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6438,13 +6436,13 @@
         <v>108</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="F83" s="16" t="s">
         <v>110</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6461,13 +6459,13 @@
         <v>111</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="F84" s="17" t="s">
         <v>113</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -6484,13 +6482,13 @@
         <v>114</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G85" s="12" t="s">
+      <c r="F85" s="12" t="s">
         <v>116</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/template/Oracle/Oracle設定チェックシート.xlsx
+++ b/template/Oracle/Oracle設定チェックシート.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="367">
   <si>
     <t>共通設定</t>
   </si>
@@ -211,9 +211,6 @@
     <t>sumstorage.redologs</t>
   </si>
   <si>
-    <t>Oracle</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>dbcomps</t>
-  </si>
-  <si>
-    <t>データベース構成</t>
   </si>
   <si>
     <t>'DBA_REGISTRY' の検索</t>
@@ -1558,13 +1552,35 @@
   </si>
   <si>
     <t>パラメータ：diagnostic_dest</t>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>_redmine:ソフトウェア</t>
+  </si>
+  <si>
+    <t>データベース機能</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>orahost11_orcl</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>orahost12_orcl</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1613,8 +1629,25 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,6 +1687,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -1864,15 +1908,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1981,14 +2028,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="出力" xfId="2" builtinId="21"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
@@ -2343,7 +2400,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -2380,7 +2437,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -2399,7 +2456,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -2434,7 +2491,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -2471,7 +2528,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -2506,7 +2563,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -2543,7 +2600,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -2562,7 +2619,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -2598,13 +2655,13 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
@@ -2621,13 +2678,13 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
@@ -2644,13 +2701,13 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2667,13 +2724,13 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
@@ -2691,10 +2748,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -2711,13 +2768,13 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
@@ -2735,10 +2792,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
@@ -2756,10 +2813,10 @@
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -2777,10 +2834,10 @@
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -2798,10 +2855,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -2835,7 +2892,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -2871,18 +2928,18 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="30"/>
       <c r="N29" s="30"/>
       <c r="O29" s="30"/>
@@ -3196,7 +3253,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -3233,7 +3290,7 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="B45" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
@@ -3270,7 +3327,7 @@
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -3305,7 +3362,7 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="30"/>
       <c r="B49" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C49" s="30"/>
       <c r="D49" s="30"/>
@@ -3342,7 +3399,7 @@
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -3378,7 +3435,7 @@
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
@@ -3397,7 +3454,7 @@
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -3416,7 +3473,7 @@
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="27" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
@@ -3450,7 +3507,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -3487,7 +3544,7 @@
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -3524,7 +3581,7 @@
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -3558,7 +3615,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -3595,7 +3652,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -3632,7 +3689,7 @@
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -3667,7 +3724,7 @@
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="30"/>
       <c r="B69" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -3686,7 +3743,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -3723,7 +3780,7 @@
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -3758,7 +3815,7 @@
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="30"/>
@@ -3795,7 +3852,7 @@
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76" s="30"/>
       <c r="E76" s="30"/>
@@ -3814,7 +3871,7 @@
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -3850,7 +3907,7 @@
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
@@ -3869,7 +3926,7 @@
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
@@ -3903,15 +3960,15 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3951,18 +4008,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -4036,55 +4093,57 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -4362,19 +4421,25 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$84:$C$85</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B23</xm:sqref>
+          <xm:sqref>B6:B23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4392,9 +4457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4521,60 +4584,66 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6" t="s">
-        <v>58</v>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
@@ -4764,16 +4833,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4781,16 +4850,16 @@
         <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4840,7 +4909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4888,55 +4959,55 @@
         <v>25</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>22</v>
@@ -4945,17 +5016,17 @@
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>22</v>
@@ -4964,17 +5035,17 @@
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8"/>
       <c r="B8" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>22</v>
@@ -4983,17 +5054,17 @@
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>22</v>
@@ -5002,17 +5073,17 @@
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>22</v>
@@ -5021,17 +5092,17 @@
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>22</v>
@@ -5040,17 +5111,17 @@
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>22</v>
@@ -5059,17 +5130,17 @@
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>22</v>
@@ -5078,17 +5149,17 @@
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8"/>
       <c r="B14" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>22</v>
@@ -5097,36 +5168,40 @@
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="35" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="B16" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>312</v>
+        <v>297</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>364</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>140</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>22</v>
@@ -5135,17 +5210,17 @@
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="8"/>
       <c r="B17" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>22</v>
@@ -5154,17 +5229,17 @@
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>22</v>
@@ -5173,17 +5248,17 @@
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>22</v>
@@ -5192,17 +5267,17 @@
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>22</v>
@@ -5211,17 +5286,17 @@
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>22</v>
@@ -5230,17 +5305,17 @@
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>22</v>
@@ -5249,17 +5324,17 @@
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>22</v>
@@ -5268,17 +5343,17 @@
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="35" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>318</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>22</v>
@@ -5287,53 +5362,53 @@
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="8"/>
       <c r="B25" s="35" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="8"/>
+        <v>148</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>22</v>
@@ -5342,17 +5417,17 @@
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8"/>
       <c r="B28" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>22</v>
@@ -5361,17 +5436,17 @@
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>22</v>
@@ -5380,17 +5455,17 @@
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>22</v>
@@ -5399,53 +5474,53 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="8"/>
       <c r="B31" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G31" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>22</v>
@@ -5454,17 +5529,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>22</v>
@@ -5473,17 +5548,17 @@
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>22</v>
@@ -5492,17 +5567,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>22</v>
@@ -5511,53 +5586,53 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="8"/>
       <c r="B37" s="35" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>177</v>
+        <v>335</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>22</v>
@@ -5566,17 +5641,17 @@
     <row r="40" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>22</v>
@@ -5585,17 +5660,17 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="8"/>
       <c r="B41" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>22</v>
@@ -5604,17 +5679,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>22</v>
@@ -5623,17 +5698,17 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>22</v>
@@ -5642,17 +5717,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>22</v>
@@ -5661,17 +5736,17 @@
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G45" s="8" t="s">
         <v>22</v>
@@ -5680,17 +5755,17 @@
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G46" s="8" t="s">
         <v>22</v>
@@ -5699,17 +5774,17 @@
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>22</v>
@@ -5718,17 +5793,17 @@
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="35" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>22</v>
@@ -5737,53 +5812,53 @@
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="8"/>
       <c r="B49" s="35" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G49" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="8"/>
       <c r="B50" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>22</v>
@@ -5792,17 +5867,17 @@
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="8"/>
       <c r="B52" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>22</v>
@@ -5811,17 +5886,17 @@
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>22</v>
@@ -5830,17 +5905,17 @@
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="8"/>
       <c r="B54" s="35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>22</v>
@@ -5849,53 +5924,53 @@
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="8"/>
       <c r="B55" s="35" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>213</v>
+        <v>347</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="G55" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>357</v>
+        <v>211</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>22</v>
@@ -5904,17 +5979,17 @@
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>22</v>
@@ -5923,17 +5998,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>22</v>
@@ -5942,17 +6017,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>22</v>
@@ -5961,17 +6036,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>22</v>
@@ -5980,17 +6055,17 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>22</v>
@@ -5999,17 +6074,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>22</v>
@@ -6018,17 +6093,17 @@
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>22</v>
@@ -6037,17 +6112,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="35" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>354</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>22</v>
@@ -6056,53 +6131,53 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="35" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G66" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>55</v>
+        <v>232</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>22</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>22</v>
@@ -6111,17 +6186,17 @@
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>22</v>
@@ -6130,40 +6205,36 @@
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="A71" s="8"/>
       <c r="B71" s="35" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>73</v>
+        <v>237</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>22</v>
@@ -6171,22 +6242,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>22</v>
@@ -6194,22 +6265,22 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>22</v>
@@ -6217,22 +6288,22 @@
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>22</v>
@@ -6240,22 +6311,22 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D75" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>85</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>22</v>
@@ -6263,22 +6334,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>22</v>
@@ -6286,22 +6357,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>22</v>
@@ -6309,22 +6380,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>22</v>
@@ -6332,22 +6403,22 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D79" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="G79" s="8" t="s">
         <v>22</v>
@@ -6355,22 +6426,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>101</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>22</v>
@@ -6378,22 +6449,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>22</v>
@@ -6401,22 +6472,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>22</v>
@@ -6424,22 +6495,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>22</v>
@@ -6447,22 +6518,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>22</v>
@@ -6470,22 +6541,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>22</v>
@@ -6539,7 +6610,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>22</v>
@@ -6598,55 +6669,55 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
@@ -6654,55 +6725,55 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
